--- a/Business Analysis.xlsx
+++ b/Business Analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/36f44aa679dd8ab1/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="227" documentId="8_{3E609014-1EED-4C11-A927-160A9C1AD148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{509AEEED-2137-40F6-A475-E74B453A9B37}"/>
+  <xr:revisionPtr revIDLastSave="250" documentId="8_{3E609014-1EED-4C11-A927-160A9C1AD148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFA45E1A-F8D6-4E23-AEB6-39382F48BF7E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t>Store</t>
   </si>
@@ -154,32 +154,64 @@
     <t>* Check Control Profit</t>
   </si>
   <si>
-    <t xml:space="preserve"> * Check EBITDA</t>
-  </si>
-  <si>
     <t>* Check  Comprehensive Income/Loss</t>
   </si>
   <si>
-    <t>* Make sure to keep your Semi-Variables in check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Make sure policies are are being followed for cash handling </t>
-  </si>
-  <si>
-    <t>* Make sure labor and food cost are at the right percentage</t>
-  </si>
-  <si>
     <t xml:space="preserve"> This project is to focus on the key factors of a business</t>
   </si>
   <si>
-    <t>* Find a business's blood pressure:</t>
+    <t>* Make sure labor and food cost are at the right percentage; PCA Report</t>
+  </si>
+  <si>
+    <t>* Make sure your business's net profit is 20% or more; i.e. .20 cent on the dollar</t>
+  </si>
+  <si>
+    <t>* Make sure to keep your Semi-Variables in check per monthly budget</t>
+  </si>
+  <si>
+    <t>* Current Ratio = Current Assets(Inventory +Cash) / Cash</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Display"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>* Make sure policies are being followed for cash handling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Display"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>* Check EBITDA; 10% is Ideal 15% or more is Optimal</t>
+  </si>
+  <si>
+    <t>* Check for proper forecast and scheduling</t>
+  </si>
+  <si>
+    <t>* Use the 30/30/30/10 Rule with the ideal usage formula as a guide; COP/OverHead/Labor/Profit Margin</t>
+  </si>
+  <si>
+    <t>* Accounts receivable is being paid within the 30 day cycle if applicable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +254,14 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -256,12 +296,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3180,8 +3220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3242,14 +3282,14 @@
       <c r="D4" s="1">
         <v>135000</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="F4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
@@ -3265,11 +3305,11 @@
       <c r="D6" s="1">
         <v>33750</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="F6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3281,9 +3321,9 @@
       <c r="D7" s="1">
         <v>36450</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -3295,14 +3335,14 @@
       <c r="D8" s="1">
         <v>1572.75</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3314,12 +3354,12 @@
       <c r="D9" s="1">
         <v>3</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -3331,14 +3371,14 @@
       <c r="D10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="F10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -3350,12 +3390,12 @@
       <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
     </row>
     <row r="12" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -3367,14 +3407,14 @@
       <c r="D12" s="1">
         <v>63230.25</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="F12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -3386,12 +3426,12 @@
       <c r="D13" s="1">
         <v>445.5</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -3403,14 +3443,14 @@
       <c r="D14" s="1">
         <v>3523.5</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="F14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -3422,12 +3462,12 @@
       <c r="D15" s="1">
         <v>9450</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
     </row>
     <row r="16" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -3439,14 +3479,14 @@
       <c r="D16" s="1">
         <v>24300</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="F16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
     </row>
     <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
@@ -3458,12 +3498,12 @@
       <c r="D17" s="1">
         <v>0</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
     </row>
     <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
@@ -3475,16 +3515,16 @@
       <c r="D18" s="1">
         <v>24300</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="20" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -3493,6 +3533,9 @@
       </c>
       <c r="D20" s="1">
         <v>25</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -3506,7 +3549,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -3515,6 +3558,9 @@
       </c>
       <c r="D22" s="1">
         <v>1.165</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3528,7 +3574,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -3537,6 +3583,9 @@
       </c>
       <c r="D24" s="1">
         <v>46.84</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -3550,7 +3599,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -3559,6 +3608,9 @@
       </c>
       <c r="D26" s="1">
         <v>7</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -3643,10 +3695,10 @@
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>5292</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>9450</v>
       </c>
     </row>
@@ -3654,10 +3706,10 @@
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>7</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>7</v>
       </c>
     </row>
@@ -3665,10 +3717,10 @@
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>249.48</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>445.5</v>
       </c>
     </row>
@@ -3676,10 +3728,10 @@
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>0.33</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>0.33</v>
       </c>
     </row>
@@ -3687,10 +3739,10 @@
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>-0.2</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>2.2200000000000002</v>
       </c>
     </row>
@@ -3698,10 +3750,10 @@
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>-156</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>3</v>
       </c>
     </row>
@@ -3709,10 +3761,10 @@
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>46.63</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>46.84</v>
       </c>
     </row>
@@ -3720,10 +3772,10 @@
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>20412</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>36450</v>
       </c>
     </row>
@@ -3731,10 +3783,10 @@
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>27</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>27</v>
       </c>
     </row>
@@ -3742,10 +3794,10 @@
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>18900</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>33750</v>
       </c>
     </row>
@@ -3753,10 +3805,10 @@
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <v>25</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>25</v>
       </c>
     </row>
@@ -3764,10 +3816,10 @@
       <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>11</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>18</v>
       </c>
     </row>
@@ -3775,10 +3827,10 @@
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="2">
         <v>8316</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>24300</v>
       </c>
     </row>
@@ -3786,10 +3838,10 @@
       <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>35251.26</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>63230.25</v>
       </c>
     </row>
@@ -3797,10 +3849,10 @@
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="2">
         <v>5292</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3808,10 +3860,10 @@
       <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="2">
         <v>7</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3819,10 +3871,10 @@
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="2">
         <v>8316</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <v>24300</v>
       </c>
     </row>
@@ -3830,10 +3882,10 @@
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="2">
         <v>11</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <v>18</v>
       </c>
     </row>
@@ -3841,10 +3893,10 @@
       <c r="A22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="2">
         <v>84000</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <v>150000</v>
       </c>
     </row>
@@ -3852,10 +3904,10 @@
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="2">
         <v>0</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3863,10 +3915,10 @@
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="2">
         <v>75600</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="2">
         <v>135000</v>
       </c>
     </row>
@@ -3874,10 +3926,10 @@
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="2">
         <v>8400</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="2">
         <v>15000</v>
       </c>
     </row>
@@ -3885,10 +3937,10 @@
       <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="2">
         <v>1973.16</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="2">
         <v>3523.5</v>
       </c>
     </row>
@@ -3896,10 +3948,10 @@
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="2">
         <v>7</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="2">
         <v>7</v>
       </c>
     </row>
@@ -3907,10 +3959,10 @@
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="2">
         <v>880.74</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="2">
         <v>1572.75</v>
       </c>
     </row>
@@ -3918,10 +3970,10 @@
       <c r="A29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="2">
         <v>1.165</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="2">
         <v>1.165</v>
       </c>
     </row>
@@ -3929,10 +3981,10 @@
       <c r="A30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="2">
         <v>0</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3940,17 +3992,17 @@
       <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="2">
         <v>272869.56499999994</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="2">
         <v>497177.55499999999</v>
       </c>
     </row>
